--- a/data/uMax/raw_data/Task2_48hr_48well_discon_171023_141142/Task2_48hr_48well_discon_171023_141142_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_171023_141142/Task2_48hr_48well_discon_171023_141142_wellNames.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicazellinger/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_171023_141142/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WRShoemaker/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_171023_141142/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,7 +841,7 @@
         <v>54</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>48</v>
@@ -858,7 +858,7 @@
         <v>55</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>48</v>
@@ -875,7 +875,7 @@
         <v>56</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>48</v>
@@ -892,7 +892,7 @@
         <v>57</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>48</v>
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>48</v>
@@ -926,7 +926,7 @@
         <v>59</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>48</v>
@@ -943,7 +943,7 @@
         <v>60</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>48</v>
@@ -960,7 +960,7 @@
         <v>61</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>48</v>
@@ -977,7 +977,7 @@
         <v>62</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>48</v>
@@ -994,7 +994,7 @@
         <v>63</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>48</v>
@@ -1113,7 +1113,7 @@
         <v>54</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>48</v>
@@ -1130,7 +1130,7 @@
         <v>55</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>48</v>
@@ -1147,7 +1147,7 @@
         <v>56</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>48</v>
@@ -1164,7 +1164,7 @@
         <v>57</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>48</v>
@@ -1181,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>48</v>
@@ -1198,7 +1198,7 @@
         <v>59</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>48</v>
@@ -1215,7 +1215,7 @@
         <v>60</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>48</v>
@@ -1232,7 +1232,7 @@
         <v>61</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>48</v>
@@ -1249,7 +1249,7 @@
         <v>62</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>48</v>
@@ -1266,7 +1266,7 @@
         <v>63</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>48</v>
